--- a/biology/Botanique/Alismataceae/Alismataceae.xlsx
+++ b/biology/Botanique/Alismataceae/Alismataceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Alismataceae (Alismatacées) est une petite famille de plantes monocotylédones. Elle comprend 100 espèces et englobe 14 genres différents à travers le monde[1]. En France, on ne trouve que 10 espèces et 6 genres pour cette famille des Alismatacées[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Alismataceae (Alismatacées) est une petite famille de plantes monocotylédones. Elle comprend 100 espèces et englobe 14 genres différents à travers le monde. En France, on ne trouve que 10 espèces et 6 genres pour cette famille des Alismatacées.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Alisma qui derive du grec αλισμα (alisma, alism, plantain d'eau [2]), ancien nom grec d'une plante aquatique[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Alisma qui derive du grec αλισμα (alisma, alism, plantain d'eau ), ancien nom grec d'une plante aquatique.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Repartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes herbacées, pérennes pour la plupart, rhizomateuses, aquatiques, des régions tempérées, subtropicales ou tropicales.
 La majorité des espèces se trouvent dans les régions tempérées de l'hémisphère nord.
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles possèdent des canaux lactifères schizogènes.
 Les feuilles sont basales, alternes, sagitées ou cordiformes. Le pétiole est bien développé et engainant.
@@ -610,10 +628,12 @@
           <t>Genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG III (2009)[4] inclut dans cette famille les genres précédemment placés dans la famille Limnocharitaceae. Les genres Butomopsis, Hydrocleys et Limnocharis pour être précis.
-Selon World Checklist of Selected Plant Families (WCSP)  (14 avr. 2010)[5] (Plus conforme à APGIII puisqu'il incorpore les genres Butomopsis, Hydrocleys et Limnocharis anciennement dans Limnocharitaceae) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG III (2009) inclut dans cette famille les genres précédemment placés dans la famille Limnocharitaceae. Les genres Butomopsis, Hydrocleys et Limnocharis pour être précis.
+Selon World Checklist of Selected Plant Families (WCSP)  (14 avr. 2010) (Plus conforme à APGIII puisqu'il incorpore les genres Butomopsis, Hydrocleys et Limnocharis anciennement dans Limnocharitaceae) :
 genre Albidella Pichon (1947)
 genre Alisma L. (1753) (plantain d'eau, flûteau)
 genre Astonia S.W.L.Jacobs (1997)
@@ -631,7 +651,7 @@
 genre Ranalisma Stapf (1900)
 genre Sagittaria Rupp. ex L. (1753) (sagittaire)
 genre Wiesneria Micheli (1881)
-Selon Angiosperm Phylogeny Website                        (14 avr. 2010)[6] :
+Selon Angiosperm Phylogeny Website                        (14 avr. 2010) :
 genre Alisma L.
 genre Baldellia Parl.
 genre Burnatia Micheli
@@ -647,7 +667,7 @@
 genre Ranalisma Stapf
 genre Sagittaria L.
 genre Wiesneria Micheli
-Selon NCBI  (14 avr. 2010)[7] :
+Selon NCBI  (14 avr. 2010) :
 genre Albidella
 genre Alisma
 genre Astonia
@@ -663,7 +683,7 @@
 genre Ranalisma
 genre Sagittaria
 genre Wiesneria
-Selon DELTA Angio           (14 avr. 2010)[8] :
+Selon DELTA Angio           (14 avr. 2010) :
 genre Alisma
 genre Baldellia
 genre Burnatia
@@ -675,7 +695,7 @@
 genre Ranalisma
 genre Sagittaria
 genre Wiesneria
-Selon ITIS      (14 avr. 2010)[9] :
+Selon ITIS      (14 avr. 2010) :
 genre Alisma L.
 genre Baldellia Parl.
 genre Burnatia Micheli
